--- a/User Stories.xlsx
+++ b/User Stories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\German\Downloads\GamersUnited\GamersUnited\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E615FE5F-BFC7-41C8-A0A2-6898505D2A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5365DF-30EA-4020-8280-9FA009213E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A6C360AD-4703-4389-B52E-44F48A98DB73}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="74">
   <si>
     <t>Short description</t>
   </si>
@@ -140,13 +140,121 @@
     <t>FAQ Insertar contenido - UI</t>
   </si>
   <si>
-    <t>Pagina Sobre nosotros</t>
-  </si>
-  <si>
     <t>Sobre Nosotros Diseño - UI</t>
   </si>
   <si>
     <t>Sobre Nosotros Insertar contenido - UI</t>
+  </si>
+  <si>
+    <t>Contacto Diseño - UI</t>
+  </si>
+  <si>
+    <t>Pagina Contacto</t>
+  </si>
+  <si>
+    <t>Pagina Sobre Nosotros</t>
+  </si>
+  <si>
+    <t>Pagina Log In</t>
+  </si>
+  <si>
+    <t>Log in Diseño - UI</t>
+  </si>
+  <si>
+    <t>Contacto carga y manejo de datos - Backend</t>
+  </si>
+  <si>
+    <t>Log in carga y manejo de datos - Backend</t>
+  </si>
+  <si>
+    <t>Carrito de compras</t>
+  </si>
+  <si>
+    <t>Carrito Prevista - UI</t>
+  </si>
+  <si>
+    <t>Carrito logica - Backend</t>
+  </si>
+  <si>
+    <t>Carrito Pagina Principal - UI</t>
+  </si>
+  <si>
+    <t>Registrarse</t>
+  </si>
+  <si>
+    <t>Sign up Diseño - UI</t>
+  </si>
+  <si>
+    <t>Sign up carga y manejo de datos - Backend</t>
+  </si>
+  <si>
+    <t>Analisis de diseño para la interfaz de la pagina principal</t>
+  </si>
+  <si>
+    <t>Implementacion del mostrado de articulos en la pagina principal</t>
+  </si>
+  <si>
+    <t>Actualizacion automatica de stock y precios en la interfaz</t>
+  </si>
+  <si>
+    <t>Implementacion de las preguntas frecuentes</t>
+  </si>
+  <si>
+    <t>Analisis de diseño para la interfaz de la pagina de preguntas frecuentes</t>
+  </si>
+  <si>
+    <t>Analisis de diseño para la interfaz de la pagina de Sobre Nosotros</t>
+  </si>
+  <si>
+    <t>Implementacion de la informacion sobre la empresa</t>
+  </si>
+  <si>
+    <t>Analisis de diseño para la interfaz de la pagina de Contacto</t>
+  </si>
+  <si>
+    <t>Logica para el procesado de informacion</t>
+  </si>
+  <si>
+    <t>Analisis de diseño para la interfaz de la pagina de Inicio de sesion</t>
+  </si>
+  <si>
+    <t>Implementacion del formulario de inicio de sesion</t>
+  </si>
+  <si>
+    <t>Implementacion del formulario de contacto</t>
+  </si>
+  <si>
+    <t>Carrito Prevista Diseño - UI</t>
+  </si>
+  <si>
+    <t>Carrito Pagina Principal Diseño - UI</t>
+  </si>
+  <si>
+    <t>Analisis de diseño para la previsualizacin del carrito de compras</t>
+  </si>
+  <si>
+    <t>Analisis de diseño para la interfaz de la pagina de el carrito de compras</t>
+  </si>
+  <si>
+    <t>Implementacion de la interfaz</t>
+  </si>
+  <si>
+    <t>Logica para el carrito de compras</t>
+  </si>
+  <si>
+    <t>Analisis de diseño para la pagina donde se va a registrar el usuario</t>
+  </si>
+  <si>
+    <t>Sign up Crear Interfaz - UI</t>
+  </si>
+  <si>
+    <t>Log in Crear Interfaz - UI</t>
+  </si>
+  <si>
+    <t>Contacto Crear Interfaz - UI</t>
+  </si>
+  <si>
+    <t>Logica del manejo de informacion</t>
   </si>
 </sst>
 </file>
@@ -171,12 +279,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -184,6 +286,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -215,25 +323,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D342AB7B-571B-44A3-833A-31DBF9A89502}">
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -572,806 +684,1068 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1">
         <v>1.2</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>12</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1">
         <v>1.3</v>
       </c>
-      <c r="C5" s="2">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="1">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1">
         <v>1.4</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>14</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="2" t="s">
+      <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1">
         <v>1.5</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>15</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="2" t="s">
+      <c r="G7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1">
         <v>1.6</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>16</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="2" t="s">
+      <c r="G8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1">
         <v>1.7</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>17</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="2" t="s">
+      <c r="G9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1">
         <v>1.8</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>18</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>3</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="2" t="s">
+      <c r="G10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2">
+      <c r="E11" s="4"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1">
         <v>2.1</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>19</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="2">
+      <c r="E12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="1">
         <v>1</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2">
+      <c r="G12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>20</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="2">
+      <c r="E13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="1">
         <v>1</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2">
+      <c r="G13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>21</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="2">
+      <c r="E14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="1">
         <v>3</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="2" t="s">
+      <c r="G14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>3</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5" t="s">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2">
+      <c r="E15" s="4"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1">
         <v>3.1</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>22</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="2">
+      <c r="E16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>23</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>4</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C19" s="1">
+        <v>24</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>25</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>5</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C22" s="1">
+        <v>26</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="1">
         <v>1</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2">
-        <v>3.2</v>
-      </c>
-      <c r="C17" s="2">
-        <v>23</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="G22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="C23" s="1">
+        <v>27</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5">
+        <v>5.3</v>
+      </c>
+      <c r="C24" s="5">
+        <v>28</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="5">
+        <v>3</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>6</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5">
+        <v>6.1</v>
+      </c>
+      <c r="C26" s="5">
+        <v>29</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" s="5">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5">
+        <v>6.2</v>
+      </c>
+      <c r="C27" s="5">
+        <v>30</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="5">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5">
+        <v>6.3</v>
+      </c>
+      <c r="C28" s="5">
+        <v>31</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="5">
+        <v>3</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>7</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5">
+        <v>7.1</v>
+      </c>
+      <c r="C30" s="5">
+        <v>32</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="5">
+        <v>2</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5">
+        <v>7.2</v>
+      </c>
+      <c r="C31" s="5">
+        <v>33</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" s="5">
+        <v>2</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5">
+        <v>7.3</v>
+      </c>
+      <c r="C32" s="5">
         <v>34</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="2">
+      <c r="D32" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" s="5">
+        <v>2</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5">
+        <v>7.4</v>
+      </c>
+      <c r="C33" s="5">
+        <v>35</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" s="5">
+        <v>2</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="C34" s="5">
+        <v>36</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34" s="5">
+        <v>3</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
+        <v>8</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:8" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5">
+        <v>8.1</v>
+      </c>
+      <c r="C36" s="5">
+        <v>37</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" s="5">
         <v>1</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>4</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2">
-        <v>24</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2">
-        <v>25</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
+      <c r="G36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C37" s="5">
+        <v>38</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F37" s="5">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C38" s="5">
+        <v>39</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F38" s="5">
+        <v>3</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
